--- a/WEB-INF/build/doc/doc.xlsx
+++ b/WEB-INF/build/doc/doc.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" refMode="R1C1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -182,23 +182,23 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,15 +499,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:16">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -519,34 +519,56 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A2" s="9" t="s">
+      <c r="L1">
+        <f>SUM(L2:L21)</f>
+        <v>660</v>
+      </c>
+      <c r="N1">
+        <v>1024</v>
+      </c>
+      <c r="O1">
+        <v>768</v>
+      </c>
+      <c r="P1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="13.5" customHeight="1">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="7"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
+      <c r="L2">
+        <v>16</v>
+      </c>
+      <c r="P2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="I3" s="9"/>
+      <c r="L3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -559,25 +581,34 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:16">
       <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="2">
+        <v>200</v>
+      </c>
+      <c r="C5" s="2">
+        <v>624</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="J5" s="2">
+        <v>200</v>
+      </c>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="10"/>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="5"/>
@@ -586,12 +617,15 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="8" t="s">
+      <c r="L6">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -600,7 +634,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:16">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
@@ -611,7 +645,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:16">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
@@ -622,7 +656,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:16">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
@@ -633,7 +667,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:16">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
@@ -644,7 +678,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:16">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
@@ -655,7 +689,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:16">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
@@ -666,7 +700,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:16">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
@@ -677,7 +711,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:16">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
@@ -688,7 +722,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:16">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
@@ -699,7 +733,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:12">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
@@ -710,7 +744,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:12">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
@@ -721,7 +755,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:12">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
@@ -732,7 +766,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:12">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -745,7 +779,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:12">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -757,47 +791,50 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="6" t="s">
+      <c r="L21">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/WEB-INF/build/doc/doc.xlsx
+++ b/WEB-INF/build/doc/doc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="20340" windowHeight="9450"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="20340" windowHeight="9450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>查询</t>
     <phoneticPr fontId="1"/>
@@ -63,6 +63,371 @@
   </si>
   <si>
     <t>公司信息</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>表</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <r>
+      <t>电话</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>码</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>手机号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>码</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>电</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>子信箱</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>绰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>联</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>系地址</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>联</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮编</t>
+    </r>
+  </si>
+  <si>
+    <t>是否激活</t>
+  </si>
+  <si>
+    <t>验证码</t>
+  </si>
+  <si>
+    <r>
+      <t>密</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>表</t>
+    </r>
+  </si>
+  <si>
+    <t>开始日期</t>
+  </si>
+  <si>
+    <r>
+      <t>结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>束日期</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>密</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>码</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>户权</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>限表</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>权</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>限ID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>权</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>限表</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>权</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>限名称</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>普通用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>户</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>统管理</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sysadmin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a@b.c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>param</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>servlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>处理</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rep</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hashmap</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -70,7 +435,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +462,14 @@
       <name val="FangSong"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="9">
@@ -158,12 +531,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -200,8 +577,21 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -501,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -852,25 +1242,228 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="6" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="15">
+        <v>42370</v>
+      </c>
+      <c r="F14">
+        <v>99991231</v>
+      </c>
+      <c r="G14">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="E10:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="10" spans="5:9">
+      <c r="I10" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="5:9">
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="5:9">
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="5:9">
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
